--- a/database_TCC.xlsx
+++ b/database_TCC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0481fc14700c8d01/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0481fc14700c8d01/Documents/Github/predictive_fin_performance/predictive_fin_performance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{746E53EA-D5AC-4D26-B235-C934F29DFBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F167134-5D23-4521-A3D6-CDDA6BC6C711}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{746E53EA-D5AC-4D26-B235-C934F29DFBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60B1D29C-A1C1-4539-8EB0-A86D0230D8BA}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="3120" windowWidth="29040" windowHeight="12480" xr2:uid="{6C5A9929-6FE4-40B6-A670-F7BB63E00D37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6C5A9929-6FE4-40B6-A670-F7BB63E00D37}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -113,17 +113,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -131,17 +131,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896D6CC9-8A9D-4484-969F-70CAAD38E2C7}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,372 +481,477 @@
     <col min="11" max="11" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>25</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>0.26004728129999999</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>11</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>27.2</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>78.62</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <f>340.82-273.15</f>
         <v>67.670000000000016</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>1.6379999999999999</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <f t="shared" ref="J2:J10" si="0">1/I2</f>
         <v>0.61050061050061055</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>2.103E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>25</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>0.11820330969999999</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>5</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>35.450000000000003</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>102</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <f>364-237.15</f>
         <v>126.85</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>2.5950000000000002</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <f t="shared" si="0"/>
         <v>0.38535645472061653</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>1.0869999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>25</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>0.37825059100000002</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>8</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>29.88</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>91.57</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <f>345.86-273.15</f>
         <v>72.710000000000036</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>1.976</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <f t="shared" si="0"/>
         <v>0.50607287449392713</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>1.694E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>25</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>3</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>0.78014184399999997</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>11</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>31</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <f>400-237.15</f>
         <v>162.85</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>4.1639999999999997</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <f t="shared" si="0"/>
         <v>0.24015369836695488</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>2.3699999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>9</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>25</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>3</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>0.3546099291</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>29</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>88.97</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <f>368-273.15</f>
         <v>94.850000000000023</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>2.8690000000000002</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <f t="shared" si="0"/>
         <v>0.34855350296270476</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>11</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>35</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>0.18912529550000001</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>8</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>31.6</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>96.9</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <f>334.3-273.15</f>
         <v>61.150000000000034</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>1.421</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <f t="shared" si="0"/>
         <v>0.70372976776917662</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>2.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>13</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>35</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>0.52009456259999998</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>11</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>20.149999999999999</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>61.8</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <f>336.18-273.15</f>
         <v>63.03000000000003</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>1.5640000000000001</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <f t="shared" si="0"/>
         <v>0.63938618925831203</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>3.1699999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>15</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>35</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>2</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>0.23640661939999999</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>5</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>30.4</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>93.3</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <f>350.5-273.15</f>
         <v>77.350000000000023</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>2.101</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <f t="shared" si="0"/>
         <v>0.47596382674916704</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>1.5599999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>17</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>35</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>3</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>0.56737588650000004</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>8</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>25.1</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>76.900000000000006</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <f>336.4-273.15</f>
         <v>63.25</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>1.591</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <f t="shared" si="0"/>
         <v>0.62853551225644255</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.18912529550000001</v>
+      </c>
+      <c r="E11" s="5">
+        <v>8</v>
+      </c>
+      <c r="F11" s="6">
+        <v>32.08</v>
+      </c>
+      <c r="G11" s="6">
+        <v>98.34</v>
+      </c>
+      <c r="H11" s="6">
+        <v>76.3</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1.946</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.51387461459999995</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.23640661939999999</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5</v>
+      </c>
+      <c r="F12" s="6">
+        <v>29.24</v>
+      </c>
+      <c r="G12" s="6">
+        <v>89.62</v>
+      </c>
+      <c r="H12" s="6">
+        <v>98.76</v>
+      </c>
+      <c r="I12" s="6">
+        <v>2.9910000000000001</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.33433634239999999</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1.14E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5">
+        <v>35</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.78014184399999997</v>
+      </c>
+      <c r="E13" s="5">
+        <v>11</v>
+      </c>
+      <c r="F13" s="6">
+        <v>10.27</v>
+      </c>
+      <c r="G13" s="6">
+        <v>31.47</v>
+      </c>
+      <c r="H13" s="6">
+        <v>94.7</v>
+      </c>
+      <c r="I13" s="6">
+        <v>2.8959999999999999</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.34530386740000002</v>
+      </c>
+      <c r="K13" s="6">
+        <v>3.3599999999999998E-2</v>
       </c>
     </row>
   </sheetData>
